--- a/Order Wise Summary/Month Septembar - 2021/Eurotex Knitwear Ltd/Running/PG-32987.xlsx
+++ b/Order Wise Summary/Month Septembar - 2021/Eurotex Knitwear Ltd/Running/PG-32987.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Date:</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>V3281</t>
+  </si>
+  <si>
+    <t>09473</t>
+  </si>
+  <si>
+    <t>40/24</t>
   </si>
 </sst>
 </file>
@@ -845,7 +851,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1065,26 +1071,50 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14">
         <f>G31-N31</f>
-        <v>1825</v>
+        <v>3790</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="19">
+        <v>44462</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2000</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="14"/>
+      <c r="J8" s="19">
+        <v>44465</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1766</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="8">
+        <v>80</v>
+      </c>
+      <c r="N8" s="14">
+        <v>35</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="8"/>
       <c r="Q8"/>
@@ -1514,11 +1544,11 @@
       <c r="E31" s="8"/>
       <c r="F31" s="1">
         <f>SUM(F7:F30)</f>
-        <v>1825</v>
+        <v>3825</v>
       </c>
       <c r="G31" s="1">
         <f>SUM(G7:G30)</f>
-        <v>1825</v>
+        <v>3825</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="8"/>
@@ -1528,7 +1558,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1">
         <f>SUM(N7:N30)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="8"/>
